--- a/src/main/resources/input/pasta.xlsx
+++ b/src/main/resources/input/pasta.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmar.aguiar\Documents\GitHub\solver\src\main\resources\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\solver\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4DC07-047D-4532-929B-4CF63F1B2C9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F7F6ED-4836-4B92-8D9D-1405E631E427}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,16 +77,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -102,7 +101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="1114425"/>
+          <a:off x="7134225" y="219075"/>
           <a:ext cx="3400425" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -547,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3DE32-176C-4965-85C2-5109384C7250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
